--- a/dbt_project_setup_automation/ip/table_level_metadata.xlsx
+++ b/dbt_project_setup_automation/ip/table_level_metadata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paulfry/Dropbox/tech/code/git-repos/dbt_repos/dbt/dbt_project_setup_automation/ip/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBEE5E0A-03CD-664F-AF16-2B2D26B3F844}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB76394F-55A2-2B46-822D-E1F8B5F35827}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheelt1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="17">
   <si>
     <t>no</t>
   </si>
@@ -28,9 +28,6 @@
     <t>table</t>
   </si>
   <si>
-    <t>unique_key</t>
-  </si>
-  <si>
     <t>description</t>
   </si>
   <si>
@@ -71,6 +68,9 @@
   </si>
   <si>
     <t>updated_at_field</t>
+  </si>
+  <si>
+    <t>primary_key</t>
   </si>
 </sst>
 </file>
@@ -556,9 +556,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="7" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="7" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -624,9 +622,9 @@
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="no"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="data_src"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="table"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="description"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="unique_key"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="primary_key"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="updated_at_field"/>
+    <tableColumn id="8" xr3:uid="{A452C0BE-FB92-E440-8590-82C34C06FA69}" name="description"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="comments"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -933,46 +931,47 @@
   <dimension ref="B2:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="5.5" customWidth="1"/>
     <col min="4" max="4" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="E2" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="F2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="1"/>
+        <v>10</v>
+      </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" t="s">
         <v>1</v>
       </c>
       <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" t="s">
         <v>3</v>
-      </c>
-      <c r="F3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.2">
@@ -980,16 +979,16 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G4" t="s">
         <v>9</v>
@@ -1000,16 +999,16 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G5" t="s">
         <v>9</v>
@@ -1020,10 +1019,10 @@
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.2">
@@ -1031,10 +1030,10 @@
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.2">
@@ -1042,10 +1041,10 @@
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.2">
@@ -1053,10 +1052,10 @@
         <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.2">
@@ -1064,10 +1063,10 @@
         <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.2">
@@ -1075,10 +1074,10 @@
         <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.2">
@@ -1086,16 +1085,13 @@
         <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="F2:G2"/>
-  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>

--- a/dbt_project_setup_automation/ip/table_level_metadata.xlsx
+++ b/dbt_project_setup_automation/ip/table_level_metadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11009"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paulfry/Dropbox/tech/code/git-repos/dbt_repos/dbt/dbt_project_setup_automation/ip/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB76394F-55A2-2B46-822D-E1F8B5F35827}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0B8FF39-EA2F-F34F-B0EC-7F0D341729C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheelt1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="18">
   <si>
     <t>no</t>
   </si>
@@ -71,6 +71,9 @@
   </si>
   <si>
     <t>primary_key</t>
+  </si>
+  <si>
+    <t>created_at_field</t>
   </si>
 </sst>
 </file>
@@ -616,13 +619,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="B3:H12" totalsRowShown="0">
-  <autoFilter ref="B3:H12" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="B3:I12" totalsRowShown="0">
+  <autoFilter ref="B3:I12" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="no"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="data_src"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="table"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="primary_key"/>
+    <tableColumn id="4" xr3:uid="{63177DA1-551D-A84B-980B-596449670DD2}" name="created_at_field"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="updated_at_field"/>
     <tableColumn id="8" xr3:uid="{A452C0BE-FB92-E440-8590-82C34C06FA69}" name="description"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="comments"/>
@@ -928,10 +932,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:H12"/>
+  <dimension ref="B2:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -939,19 +943,21 @@
     <col min="2" max="2" width="5.5" customWidth="1"/>
     <col min="4" max="4" width="17.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.6640625" customWidth="1"/>
+    <col min="7" max="7" width="19" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.2">
       <c r="E2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="1"/>
+      <c r="G2" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -965,16 +971,19 @@
         <v>16</v>
       </c>
       <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" t="s">
         <v>15</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>2</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B4">
         <v>1</v>
       </c>
@@ -991,10 +1000,13 @@
         <v>8</v>
       </c>
       <c r="G4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>2</v>
       </c>
@@ -1011,10 +1023,13 @@
         <v>8</v>
       </c>
       <c r="G5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>3</v>
       </c>
@@ -1025,7 +1040,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B7">
         <v>4</v>
       </c>
@@ -1036,7 +1051,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B8">
         <v>5</v>
       </c>
@@ -1047,7 +1062,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B9">
         <v>6</v>
       </c>
@@ -1058,7 +1073,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B10">
         <v>7</v>
       </c>
@@ -1069,7 +1084,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B11">
         <v>8</v>
       </c>
@@ -1080,7 +1095,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B12">
         <v>9</v>
       </c>
